--- a/丙丁班(Ctrl)後測成績2.xlsx
+++ b/丙丁班(Ctrl)後測成績2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chang You Wei\Desktop\實驗資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B0B224-D31F-4B1A-BE73-3874D62AC137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81DD388-ACF6-4DBA-B178-6AC69C4BBAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="110">
   <si>
     <t>順序</t>
   </si>
@@ -426,11 +426,26 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>commit &amp; push</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>conflict solve</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -584,7 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,6 +633,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -899,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -914,9 +930,11 @@
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="8" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" thickBot="1">
+    <row r="1" spans="1:12" ht="20.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,8 +952,17 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" thickBot="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -948,13 +975,31 @@
       <c r="D2" s="3">
         <v>50</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3">
+        <v>100</v>
+      </c>
+      <c r="H2" s="15">
+        <f>(D2*2+G2)/3</f>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" thickBot="1">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -967,13 +1012,31 @@
       <c r="D3" s="3">
         <v>25</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>34</v>
+      </c>
+      <c r="H3" s="15">
+        <f t="shared" ref="H3:H52" si="0">(D3*2+G3)/3</f>
+        <v>28</v>
+      </c>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.5" thickBot="1">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -986,13 +1049,31 @@
       <c r="D4" s="3">
         <v>25</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="E4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3">
+        <v>50</v>
+      </c>
+      <c r="H4" s="15">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" thickBot="1">
       <c r="A5" s="10">
         <v>5</v>
       </c>
@@ -1005,13 +1086,31 @@
       <c r="D5" s="3">
         <v>100</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="E5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3">
+        <v>100</v>
+      </c>
+      <c r="H5" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" thickBot="1">
       <c r="A6" s="10">
         <v>6</v>
       </c>
@@ -1024,13 +1123,31 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19.5" thickBot="1">
       <c r="A7" s="10">
         <v>7</v>
       </c>
@@ -1043,13 +1160,31 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="E7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" thickBot="1">
       <c r="A8" s="10">
         <v>8</v>
       </c>
@@ -1062,13 +1197,31 @@
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" thickBot="1">
       <c r="A9" s="10">
         <v>9</v>
       </c>
@@ -1081,13 +1234,31 @@
       <c r="D9" s="3">
         <v>25</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="E9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3">
+        <v>50</v>
+      </c>
+      <c r="H9" s="15">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" thickBot="1">
       <c r="A10" s="10">
         <v>10</v>
       </c>
@@ -1100,13 +1271,31 @@
       <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="E10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" thickBot="1">
       <c r="A11" s="10">
         <v>11</v>
       </c>
@@ -1119,13 +1308,31 @@
       <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="E11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19.5" thickBot="1">
       <c r="A12" s="10">
         <v>12</v>
       </c>
@@ -1138,13 +1345,31 @@
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19.5" thickBot="1">
       <c r="A13" s="10">
         <v>13</v>
       </c>
@@ -1157,13 +1382,31 @@
       <c r="D13" s="3">
         <v>25</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
+      <c r="E13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3">
+        <v>50</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" thickBot="1">
       <c r="A14" s="10">
         <v>15</v>
       </c>
@@ -1176,13 +1419,31 @@
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
+      <c r="E14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" thickBot="1">
       <c r="A15" s="10">
         <v>16</v>
       </c>
@@ -1195,13 +1456,31 @@
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="E15" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" thickBot="1">
       <c r="A16" s="10">
         <v>17</v>
       </c>
@@ -1214,13 +1493,31 @@
       <c r="D16" s="3">
         <v>75</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="E16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3">
+        <v>100</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
       <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19.5" thickBot="1">
       <c r="A17" s="10">
         <v>18</v>
       </c>
@@ -1233,13 +1530,31 @@
       <c r="D17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
+      <c r="E17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" thickBot="1">
       <c r="A18" s="10">
         <v>19</v>
       </c>
@@ -1252,13 +1567,31 @@
       <c r="D18" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
+      <c r="E18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="19.5" thickBot="1">
       <c r="A19" s="10">
         <v>20</v>
       </c>
@@ -1271,13 +1604,31 @@
       <c r="D19" s="3">
         <v>50</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
+      <c r="E19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3">
+        <v>67</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="0"/>
+        <v>55.666666666666664</v>
+      </c>
       <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19.5" thickBot="1">
       <c r="A20" s="10">
         <v>21</v>
       </c>
@@ -1290,13 +1641,31 @@
       <c r="D20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
+      <c r="E20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19.5" thickBot="1">
       <c r="A21" s="10">
         <v>22</v>
       </c>
@@ -1309,13 +1678,31 @@
       <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
+      <c r="E21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="19.5" thickBot="1">
       <c r="A22" s="10">
         <v>23</v>
       </c>
@@ -1328,13 +1715,31 @@
       <c r="D22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
+      <c r="E22" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="19.5" thickBot="1">
       <c r="A23" s="10">
         <v>24</v>
       </c>
@@ -1347,13 +1752,31 @@
       <c r="D23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
+      <c r="E23" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="19.5" thickBot="1">
       <c r="A24" s="10">
         <v>25</v>
       </c>
@@ -1366,13 +1789,31 @@
       <c r="D24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
+      <c r="E24" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="19.5" thickBot="1">
       <c r="A25" s="10">
         <v>26</v>
       </c>
@@ -1385,13 +1826,31 @@
       <c r="D25" s="3">
         <v>25</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
+      <c r="E25" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="3">
+        <v>50</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="19.5" thickBot="1">
       <c r="A26" s="10">
         <v>27</v>
       </c>
@@ -1404,13 +1863,31 @@
       <c r="D26" s="3">
         <v>0</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
+      <c r="E26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="19.5" thickBot="1">
       <c r="A27" s="10">
         <v>28</v>
       </c>
@@ -1423,13 +1900,31 @@
       <c r="D27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
+      <c r="E27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="19.5" thickBot="1">
       <c r="A28" s="10">
         <v>29</v>
       </c>
@@ -1442,13 +1937,31 @@
       <c r="D28" s="3">
         <v>100</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
+      <c r="E28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="3">
+        <v>100</v>
+      </c>
+      <c r="H28" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="19.5" thickBot="1">
       <c r="A29" s="10">
         <v>30</v>
       </c>
@@ -1461,13 +1974,31 @@
       <c r="D29" s="3">
         <v>100</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
+      <c r="E29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="3">
+        <v>100</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="19.5" thickBot="1">
       <c r="A30" s="10">
         <v>31</v>
       </c>
@@ -1480,13 +2011,31 @@
       <c r="D30" s="3">
         <v>50</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
+      <c r="E30" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="3">
+        <v>100</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="19.5" thickBot="1">
       <c r="A31" s="10">
         <v>32</v>
       </c>
@@ -1499,13 +2048,31 @@
       <c r="D31" s="3">
         <v>0</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
+      <c r="E31" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="19.5" thickBot="1">
       <c r="A32" s="10">
         <v>33</v>
       </c>
@@ -1518,13 +2085,31 @@
       <c r="D32" s="3">
         <v>50</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
+      <c r="E32" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J32">
+        <v>100</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="19.5" thickBot="1">
       <c r="A33" s="10">
         <v>34</v>
       </c>
@@ -1537,13 +2122,31 @@
       <c r="D33" s="3">
         <v>50</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
+      <c r="E33" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="19.5" thickBot="1">
       <c r="A34" s="10">
         <v>35</v>
       </c>
@@ -1556,13 +2159,31 @@
       <c r="D34" s="3">
         <v>0</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
+      <c r="E34" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="19.5" thickBot="1">
       <c r="A35" s="10">
         <v>36</v>
       </c>
@@ -1575,13 +2196,31 @@
       <c r="D35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
+      <c r="E35" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="19.5" thickBot="1">
       <c r="A36" s="10">
         <v>37</v>
       </c>
@@ -1594,13 +2233,31 @@
       <c r="D36" s="3">
         <v>25</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
+      <c r="E36" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="3">
+        <v>50</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="19.5" thickBot="1">
       <c r="A37" s="10">
         <v>38</v>
       </c>
@@ -1613,13 +2270,31 @@
       <c r="D37" s="3">
         <v>50</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
+      <c r="E37" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="3">
+        <v>100</v>
+      </c>
+      <c r="H37" s="15">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="19.5" thickBot="1">
       <c r="A38" s="10">
         <v>39</v>
       </c>
@@ -1632,13 +2307,31 @@
       <c r="D38" s="3">
         <v>0</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
+      <c r="E38" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="19.5" thickBot="1">
       <c r="A39" s="10">
         <v>40</v>
       </c>
@@ -1651,13 +2344,31 @@
       <c r="D39" s="3">
         <v>100</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
+      <c r="E39" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="3">
+        <v>100</v>
+      </c>
+      <c r="H39" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>100</v>
+      </c>
+      <c r="L39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="19.5" thickBot="1">
       <c r="A40" s="10">
         <v>41</v>
       </c>
@@ -1670,13 +2381,31 @@
       <c r="D40" s="3">
         <v>0</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
+      <c r="E40" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="19.5" thickBot="1">
       <c r="A41" s="10">
         <v>42</v>
       </c>
@@ -1689,13 +2418,31 @@
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
+      <c r="E41" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="19.5" thickBot="1">
       <c r="A42" s="10">
         <v>43</v>
       </c>
@@ -1708,13 +2455,31 @@
       <c r="D42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
+      <c r="E42" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="3">
+        <v>100</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
+      <c r="L42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="19.5" thickBot="1">
       <c r="A43" s="10">
         <v>44</v>
       </c>
@@ -1727,13 +2492,31 @@
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
+      <c r="E43" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="19.5" thickBot="1">
       <c r="A44" s="10">
         <v>45</v>
       </c>
@@ -1746,13 +2529,31 @@
       <c r="D44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
+      <c r="E44" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>100</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="19.5" thickBot="1">
       <c r="A45" s="10">
         <v>46</v>
       </c>
@@ -1765,13 +2566,31 @@
       <c r="D45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="8"/>
+      <c r="E45" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
+      <c r="L45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="19.5" thickBot="1">
       <c r="A46" s="10">
         <v>47</v>
       </c>
@@ -1784,13 +2603,31 @@
       <c r="D46" s="3">
         <v>50</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="8"/>
+      <c r="E46" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="15">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>100</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="19.5" thickBot="1">
       <c r="A47" s="10">
         <v>48</v>
       </c>
@@ -1803,13 +2640,31 @@
       <c r="D47" s="3">
         <v>50</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="8"/>
+      <c r="E47" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="3">
+        <v>100</v>
+      </c>
+      <c r="H47" s="15">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="19.5" thickBot="1">
       <c r="A48" s="10">
         <v>49</v>
       </c>
@@ -1822,13 +2677,31 @@
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
+      <c r="E48" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="19.5" thickBot="1">
       <c r="A49" s="10">
         <v>50</v>
       </c>
@@ -1841,13 +2714,31 @@
       <c r="D49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="8"/>
+      <c r="E49" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="3">
+        <v>100</v>
+      </c>
+      <c r="H49" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J49">
+        <v>100</v>
+      </c>
+      <c r="K49">
+        <v>100</v>
+      </c>
+      <c r="L49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="19.5" thickBot="1">
       <c r="A50" s="10">
         <v>51</v>
       </c>
@@ -1860,13 +2751,31 @@
       <c r="D50" s="3">
         <v>25</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="8"/>
+      <c r="E50" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="3">
+        <v>50</v>
+      </c>
+      <c r="H50" s="15">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
       <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J50">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="19.5" thickBot="1">
       <c r="A51" s="10">
         <v>52</v>
       </c>
@@ -1879,13 +2788,31 @@
       <c r="D51" s="3">
         <v>100</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="8"/>
+      <c r="E51" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" s="3">
+        <v>100</v>
+      </c>
+      <c r="H51" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" ht="19.5" thickBot="1">
+      <c r="J51">
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>100</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="19.5" thickBot="1">
       <c r="A52" s="10">
         <v>53</v>
       </c>
@@ -1898,13 +2825,31 @@
       <c r="D52" s="3">
         <v>50</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="8"/>
+      <c r="E52" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="15">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" ht="19.5">
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52">
+        <v>100</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="20.25" thickBot="1">
       <c r="A53" s="14" t="s">
         <v>106</v>
       </c>
@@ -1912,20 +2857,32 @@
         <f>AVERAGE(D2:D52)</f>
         <v>45.098039215686278</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="8"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="15">
+        <f>AVERAGE(H2:H52)</f>
+        <v>49.026143790849666</v>
+      </c>
       <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" ht="18.75">
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="8"/>
+      <c r="J53">
+        <f>AVERAGE(J2:J51)</f>
+        <v>64</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:L53" si="1">AVERAGE(K2:K51)</f>
+        <v>50</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="18.75">
+      <c r="H54" s="15"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" ht="18.75">
+    <row r="55" spans="1:12" ht="18.75">
       <c r="A55" s="14"/>
       <c r="D55" s="9"/>
       <c r="E55" s="7"/>
@@ -1934,40 +2891,40 @@
       <c r="H55" s="8"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" ht="18.75">
+    <row r="56" spans="1:12" ht="18.75">
       <c r="H56" s="8"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" ht="18.75">
+    <row r="57" spans="1:12" ht="18.75">
       <c r="H57" s="8"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" ht="18.75">
+    <row r="58" spans="1:12" ht="18.75">
       <c r="H58" s="8"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" ht="18.75">
+    <row r="59" spans="1:12" ht="18.75">
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="8"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="61" spans="1:9" ht="18.75">
+    <row r="61" spans="1:12" ht="18.75">
       <c r="A61" s="8"/>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:9" ht="18.75">
+    <row r="62" spans="1:12" ht="18.75">
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:9" ht="18.75">
+    <row r="63" spans="1:12" ht="18.75">
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:9" ht="18.75">
+    <row r="64" spans="1:12" ht="18.75">
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -1992,6 +2949,9 @@
       <c r="H67" s="8"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:G53">
+    <sortCondition ref="E2:E53"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/丙丁班(Ctrl)後測成績2.xlsx
+++ b/丙丁班(Ctrl)後測成績2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81DD388-ACF6-4DBA-B178-6AC69C4BBAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518AD9DC-02F8-4B3F-A6D7-A272BB6D6BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -915,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="19.5" thickBot="1">
+    <row r="49" spans="1:13" ht="19.5" thickBot="1">
       <c r="A49" s="10">
         <v>50</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="19.5" thickBot="1">
+    <row r="50" spans="1:13" ht="19.5" thickBot="1">
       <c r="A50" s="10">
         <v>51</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="19.5" thickBot="1">
+    <row r="51" spans="1:13" ht="19.5" thickBot="1">
       <c r="A51" s="10">
         <v>52</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="19.5" thickBot="1">
+    <row r="52" spans="1:13" ht="19.5" thickBot="1">
       <c r="A52" s="10">
         <v>53</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="20.25" thickBot="1">
+    <row r="53" spans="1:13" ht="20.25" thickBot="1">
       <c r="A53" s="14" t="s">
         <v>106</v>
       </c>
@@ -2877,12 +2877,16 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="18.75">
+      <c r="M53">
+        <f>(J53+K53+L53)/3</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="18.75">
       <c r="H54" s="15"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="18.75">
+    <row r="55" spans="1:13" ht="18.75">
       <c r="A55" s="14"/>
       <c r="D55" s="9"/>
       <c r="E55" s="7"/>
@@ -2891,40 +2895,40 @@
       <c r="H55" s="8"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="18.75">
+    <row r="56" spans="1:13" ht="18.75">
       <c r="H56" s="8"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="18.75">
+    <row r="57" spans="1:13" ht="18.75">
       <c r="H57" s="8"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="18.75">
+    <row r="58" spans="1:13" ht="18.75">
       <c r="H58" s="8"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="18.75">
+    <row r="59" spans="1:13" ht="18.75">
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="8"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="18.75">
+    <row r="61" spans="1:13" ht="18.75">
       <c r="A61" s="8"/>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="18.75">
+    <row r="62" spans="1:13" ht="18.75">
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:12" ht="18.75">
+    <row r="63" spans="1:13" ht="18.75">
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:12" ht="18.75">
+    <row r="64" spans="1:13" ht="18.75">
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>

--- a/丙丁班(Ctrl)後測成績2.xlsx
+++ b/丙丁班(Ctrl)後測成績2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518AD9DC-02F8-4B3F-A6D7-A272BB6D6BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65D80F8-26C7-4C52-AB84-E88CB4826DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -918,7 +918,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
